--- a/Excel/fund/funds.xlsx
+++ b/Excel/fund/funds.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="funds" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">funds!$F$1:$F$3097</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6242" uniqueCount="5608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6340" uniqueCount="5611">
   <si>
     <t>序号</t>
   </si>
@@ -16843,6 +16846,18 @@
   </si>
   <si>
     <t>rowInterval</t>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>good</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>N/A</t>
@@ -16856,7 +16871,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17022,6 +17037,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -17449,7 +17473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -17460,6 +17484,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18000,10 +18033,10 @@
   <dimension ref="A1:H3097"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F656" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E681" sqref="E681"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -18012,7 +18045,7 @@
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.21875" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.21875" customWidth="1"/>
   </cols>
@@ -20376,6 +20409,9 @@
         <f t="shared" si="1"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002400</v>
       </c>
+      <c r="F124" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -20394,6 +20430,9 @@
         <f t="shared" si="1"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/164701</v>
       </c>
+      <c r="F125" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -20458,7 +20497,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -20479,7 +20518,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -20496,8 +20535,11 @@
         <f t="shared" si="1"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002401</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -20511,14 +20553,14 @@
         <v>42626</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131:E194" si="2">"http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/"&amp;TRIM(B131)</f>
+        <f t="shared" ref="E131:F194" si="2">"http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/"&amp;TRIM(B131)</f>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/090015</v>
       </c>
       <c r="F131" s="3">
         <v>5.95</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -20539,7 +20581,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -20556,8 +20598,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001739</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -20574,8 +20619,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002160</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -20596,7 +20644,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -20617,7 +20665,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -20638,7 +20686,7 @@
         <v>5607</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -20659,7 +20707,7 @@
         <v>5607</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -20680,28 +20728,31 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D140" s="2">
-        <v>42626</v>
-      </c>
-      <c r="E140" t="str">
+      <c r="D140" s="5">
+        <v>42626</v>
+      </c>
+      <c r="E140" s="4" t="str">
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/160211</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="6">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -20722,7 +20773,7 @@
         <v>5607</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -20743,7 +20794,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -20764,7 +20815,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -20991,6 +21042,9 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519111</v>
       </c>
+      <c r="F154" s="3">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -21009,6 +21063,9 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001616</v>
       </c>
+      <c r="F155" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -21027,6 +21084,9 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000290</v>
       </c>
+      <c r="F156" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -21045,6 +21105,9 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519662</v>
       </c>
+      <c r="F157" s="3">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -21063,6 +21126,9 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002611</v>
       </c>
+      <c r="F158" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -21081,6 +21147,9 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001766</v>
       </c>
+      <c r="F159" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -21099,8 +21168,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519124</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -21117,8 +21189,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/240018</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -21135,8 +21210,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519123</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -21153,8 +21231,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001073</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="3">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -21171,8 +21252,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/160718</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -21189,8 +21273,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/470059</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -21207,8 +21294,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/163411</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -21225,8 +21315,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/080009</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -21243,8 +21336,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/470058</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -21261,8 +21357,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/161911</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -21279,8 +21378,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000214</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -21297,8 +21399,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/161015</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -21315,8 +21420,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/090020</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -21333,8 +21441,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/183001</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -21351,8 +21462,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/165513</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="3" t="s">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -21369,8 +21483,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/160627</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="3">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -21387,8 +21504,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001691</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -21405,8 +21525,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001490</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -21423,8 +21546,14 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000127</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="3">
+        <v>72</v>
+      </c>
+      <c r="G178" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -21441,8 +21570,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/165809</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="3">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -21459,8 +21591,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519943</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -21477,8 +21612,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/090013</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -21495,8 +21633,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/160132</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -21513,8 +21654,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000676</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -21531,8 +21675,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002970</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -21549,8 +21696,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/161019</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -21567,8 +21717,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519942</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -21585,8 +21738,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000845</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -21603,8 +21759,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002568</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -21621,8 +21780,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000594</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="3">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -21639,8 +21801,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/121009</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -21657,8 +21822,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519112</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -21675,8 +21843,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002139</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -21693,8 +21864,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002138</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -21711,8 +21885,11 @@
         <f t="shared" si="2"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002595</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -21729,8 +21906,11 @@
         <f t="shared" ref="E195:E258" si="3">"http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/"&amp;TRIM(B195)</f>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001230</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -21747,8 +21927,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001019</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -21765,8 +21948,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/040036</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -21783,8 +21969,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000629</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -21801,8 +21990,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519663</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -21819,8 +22011,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000744</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -21837,8 +22032,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/164819</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -21855,8 +22053,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000202</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -21873,8 +22074,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/253061</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -21891,8 +22095,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000254</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -21909,8 +22116,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000255</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -21927,8 +22137,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000247</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -21945,8 +22158,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519121</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -21963,8 +22179,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001572</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -21981,8 +22200,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/168201</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -21999,8 +22221,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/166905</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -22017,8 +22242,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/166904</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -22035,8 +22263,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519129</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -22053,8 +22284,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/255010</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -22071,8 +22305,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/582001</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -22089,8 +22326,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000165</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -22107,8 +22347,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000844</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -22125,8 +22368,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000553</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -22143,8 +22389,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000474</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -22161,8 +22410,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/582201</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -22179,8 +22431,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/050116</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -22197,8 +22452,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/160918</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="3">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -22215,8 +22473,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/217022</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -22233,8 +22494,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519051</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -22251,8 +22515,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/090017</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -22269,8 +22536,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/090007</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -22287,8 +22557,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001061</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -22305,8 +22578,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/372110</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -22323,8 +22599,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000367</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -22341,8 +22620,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/410004</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -22359,8 +22641,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/080010</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -22377,8 +22662,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/200013</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -22395,8 +22683,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000538</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232" s="3">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -22413,8 +22704,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/410005</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -22432,7 +22726,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002804</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -22449,8 +22743,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000556</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235" s="3">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -22468,7 +22765,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000770</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -22486,7 +22783,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/020022</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -22503,8 +22800,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000386</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -22521,8 +22821,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000385</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -22539,8 +22842,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000696</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="3">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -22557,8 +22863,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/167503</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -22575,8 +22884,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000215</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="3">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -22593,8 +22905,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/090002</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -22612,7 +22927,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002506</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -22629,8 +22944,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/092002</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -22647,8 +22965,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/217009</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -22665,8 +22986,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/166008</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -22683,8 +23007,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519060</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -22701,8 +23028,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519061</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -22719,8 +23049,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001220</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="3">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -22738,7 +23071,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/003130</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -22756,7 +23089,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/003121</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -22774,7 +23107,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002984</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -22791,8 +23124,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000209</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="3">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -22809,8 +23145,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/160720</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -22827,8 +23166,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/160721</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -22845,8 +23187,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/161115</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -22863,8 +23208,11 @@
         <f t="shared" si="3"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/020005</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="3">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -22881,8 +23229,11 @@
         <f t="shared" ref="E259:E322" si="4">"http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/"&amp;TRIM(B259)</f>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/320004</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -22899,8 +23250,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519185</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="3">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -22917,8 +23271,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001064</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="3">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -22935,8 +23292,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002655</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -22953,8 +23313,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000151</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -22971,8 +23334,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001984</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -22989,8 +23355,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001936</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -23007,8 +23376,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000675</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -23025,8 +23397,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002777</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -23043,8 +23418,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000329</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -23061,8 +23439,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002528</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -23079,8 +23460,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002527</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -23097,8 +23481,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002474</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -23115,8 +23502,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002529</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -23133,8 +23523,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002924</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -23151,8 +23544,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519167</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -23169,8 +23565,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002738</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -23187,8 +23586,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519134</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -23205,8 +23607,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002574</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -23223,8 +23628,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002213</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -23241,8 +23649,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002856</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279" s="3" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -23259,8 +23670,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002628</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -23277,8 +23691,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002745</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -23295,8 +23712,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000066</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -23313,8 +23733,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/161828</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -23331,8 +23754,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000317</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -23349,8 +23775,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000910</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -23367,8 +23796,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/550015</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -23385,8 +23817,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000387</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -23403,8 +23838,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000357</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -23421,8 +23859,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002801</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -23439,8 +23880,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/164704</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -23457,8 +23901,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/166022</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -23475,8 +23922,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000501</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -23493,8 +23943,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002554</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -23511,8 +23964,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519321</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -23529,8 +23985,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002811</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -23547,8 +24006,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000292</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -23565,8 +24027,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/165705</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -23583,8 +24048,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000649</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -23601,8 +24069,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000814</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -23619,8 +24090,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002754</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -23637,8 +24111,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000278</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -23655,8 +24132,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000183</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -23673,8 +24153,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002727</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -23691,6 +24174,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002726</v>
       </c>
+      <c r="F304" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
@@ -23709,6 +24195,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002755</v>
       </c>
+      <c r="F305" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
@@ -23727,6 +24216,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000197</v>
       </c>
+      <c r="F306" s="3">
+        <v>58</v>
+      </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
@@ -23745,6 +24237,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002764</v>
       </c>
+      <c r="F307" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
@@ -23763,6 +24258,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002570</v>
       </c>
+      <c r="F308" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
@@ -23781,6 +24279,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001212</v>
       </c>
+      <c r="F309" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
@@ -23799,6 +24300,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002271</v>
       </c>
+      <c r="F310" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
@@ -23817,6 +24321,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002763</v>
       </c>
+      <c r="F311" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
@@ -23835,6 +24342,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002042</v>
       </c>
+      <c r="F312" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
@@ -23853,6 +24363,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002242</v>
       </c>
+      <c r="F313" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
@@ -23892,6 +24405,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/162215</v>
       </c>
+      <c r="F315" s="3">
+        <v>61</v>
+      </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
@@ -23910,6 +24426,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002355</v>
       </c>
+      <c r="F316" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
@@ -23928,6 +24447,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001575</v>
       </c>
+      <c r="F317" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
@@ -23946,6 +24468,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002367</v>
       </c>
+      <c r="F318" s="3" t="s">
+        <v>5607</v>
+      </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
@@ -23964,6 +24489,9 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/470089</v>
       </c>
+      <c r="F319" s="3">
+        <v>51</v>
+      </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
@@ -23982,8 +24510,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002464</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -24000,8 +24531,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/164211</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -24018,8 +24552,11 @@
         <f t="shared" si="4"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000465</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -24036,8 +24573,11 @@
         <f t="shared" ref="E323:E386" si="5">"http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/"&amp;TRIM(B323)</f>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001845</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -24054,8 +24594,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002698</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -24072,8 +24615,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002336</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -24090,8 +24636,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/020002</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -24108,8 +24657,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/470088</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -24126,8 +24678,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519951</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -24144,8 +24699,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001137</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329" s="3" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -24162,8 +24720,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/260117</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -24180,8 +24741,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000352</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -24198,8 +24762,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/163907</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -24216,8 +24783,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/160128</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -24234,8 +24804,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001919</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -24252,8 +24825,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000256</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335" s="3">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -24270,8 +24846,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519720</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -24288,8 +24867,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001918</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -24306,8 +24888,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001246</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -24324,8 +24909,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000504</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -24342,8 +24930,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001189</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340" s="3">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -24360,8 +24951,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002074</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -24378,8 +24972,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/160622</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -24396,8 +24993,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002073</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -24414,8 +25014,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002771</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -24432,8 +25035,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002770</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -24450,8 +25056,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000502</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -24468,8 +25077,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001486</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -24486,8 +25098,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001860</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -24504,8 +25119,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/020023</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -24522,8 +25140,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001859</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -24540,8 +25161,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000112</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -24558,8 +25182,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000299</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -24576,8 +25203,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/261001</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -24594,8 +25224,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/166903</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -24612,8 +25245,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/163211</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -24630,8 +25266,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000388</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356" s="3" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -24648,8 +25287,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000137</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -24666,8 +25308,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/163210</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -24684,8 +25329,11 @@
         <f t="shared" si="5"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000503</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -24703,7 +25351,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/166902</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -24721,7 +25369,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001615</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -24739,7 +25387,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001348</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -24757,7 +25405,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000111</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -24775,7 +25423,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000782</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -24793,7 +25441,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000298</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -24811,7 +25459,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001029</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -24829,7 +25477,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/040037</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -30484,7 +31132,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/165807</v>
       </c>
       <c r="F681" s="3">
-        <v>8.1999999999999993</v>
+        <v>80</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
@@ -54232,7 +54880,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519929</v>
       </c>
     </row>
-    <row r="2001" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2001" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2001">
         <v>2000</v>
       </c>
@@ -54250,7 +54898,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000334</v>
       </c>
     </row>
-    <row r="2002" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2002" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2002">
         <v>2001</v>
       </c>
@@ -54268,7 +54916,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001322</v>
       </c>
     </row>
-    <row r="2003" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2003" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2003">
         <v>2002</v>
       </c>
@@ -54286,7 +54934,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/161226</v>
       </c>
     </row>
-    <row r="2004" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2004" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2004">
         <v>2003</v>
       </c>
@@ -54304,7 +54952,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001339</v>
       </c>
     </row>
-    <row r="2005" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2005">
         <v>2004</v>
       </c>
@@ -54321,8 +54969,11 @@
         <f t="shared" si="31"/>
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001272</v>
       </c>
-    </row>
-    <row r="2006" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2005" s="3">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2006">
         <v>2005</v>
       </c>
@@ -54340,7 +54991,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/040008</v>
       </c>
     </row>
-    <row r="2007" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2007">
         <v>2006</v>
       </c>
@@ -54358,7 +55009,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001480</v>
       </c>
     </row>
-    <row r="2008" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2008" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2008">
         <v>2007</v>
       </c>
@@ -54376,7 +55027,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000478</v>
       </c>
     </row>
-    <row r="2009" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2009" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2009">
         <v>2008</v>
       </c>
@@ -54394,7 +55045,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001599</v>
       </c>
     </row>
-    <row r="2010" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2010" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2010">
         <v>2009</v>
       </c>
@@ -54412,7 +55063,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/519686</v>
       </c>
     </row>
-    <row r="2011" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2011" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2011">
         <v>2010</v>
       </c>
@@ -54430,7 +55081,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/002305</v>
       </c>
     </row>
-    <row r="2012" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2012" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2012">
         <v>2011</v>
       </c>
@@ -54448,7 +55099,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001726</v>
       </c>
     </row>
-    <row r="2013" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2013" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2013">
         <v>2012</v>
       </c>
@@ -54466,7 +55117,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/001600</v>
       </c>
     </row>
-    <row r="2014" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2014" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2014">
         <v>2013</v>
       </c>
@@ -54484,7 +55135,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000962</v>
       </c>
     </row>
-    <row r="2015" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2015" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2015">
         <v>2014</v>
       </c>
@@ -54502,7 +55153,7 @@
         <v>http://fundsc.eastmoney.com/webapp/2016/jjzd/#showFund/000994</v>
       </c>
     </row>
-    <row r="2016" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2016" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2016">
         <v>2015</v>
       </c>
@@ -73979,6 +74630,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F3097"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
